--- a/data/in/Run_Defintions.xlsx
+++ b/data/in/Run_Defintions.xlsx
@@ -5,17 +5,18 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/kholsman/GitHub_new/EBM_Holsman_NatComm/data/sim/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/kholsman/GitHub_new/EBM_Holsman_NatComm/data/in/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EB963CEC-B98C-764C-9202-428F42DB0DE5}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{21FFEADF-4916-684C-8F3D-45E97D2CBC15}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3180" yWindow="2060" windowWidth="27640" windowHeight="16940" xr2:uid="{E1D3E7D2-9A4F-974E-BFB2-1869A4375FC9}"/>
+    <workbookView xWindow="0" yWindow="2820" windowWidth="33600" windowHeight="17460" xr2:uid="{E1D3E7D2-9A4F-974E-BFB2-1869A4375FC9}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="181029"/>
+  <fileRecoveryPr repairLoad="1"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -279,8 +280,11 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -597,19 +601,20 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{40596BD5-0747-6B40-96EB-05DFB6E381A2}">
   <dimension ref="A1:P17"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D18" sqref="D18"/>
+    <sheetView tabSelected="1" topLeftCell="A5" zoomScale="125" zoomScaleNormal="125" workbookViewId="0">
+      <selection activeCell="D10" sqref="D10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="22.5" customWidth="1"/>
+    <col min="1" max="1" width="35.83203125" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="15.33203125" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="19.6640625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="34.83203125" customWidth="1"/>
+    <col min="4" max="4" width="55.83203125" style="1" customWidth="1"/>
+    <col min="9" max="9" width="24" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:16" ht="17" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>48</v>
       </c>
@@ -619,7 +624,7 @@
       <c r="C1" t="s">
         <v>1</v>
       </c>
-      <c r="D1" t="s">
+      <c r="D1" s="1" t="s">
         <v>2</v>
       </c>
       <c r="E1" t="s">
@@ -659,10 +664,10 @@
         <v>62</v>
       </c>
     </row>
-    <row r="2" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:16" ht="51" x14ac:dyDescent="0.2">
       <c r="A2" t="str">
-        <f>L2&amp;": "&amp;M2&amp;": "&amp;N2</f>
-        <v xml:space="preserve">SSM: mnF: </v>
+        <f t="shared" ref="A2:A11" si="0">L2&amp;": "&amp;M2&amp;": "&amp;N2&amp;": "&amp;O2</f>
+        <v>SSM: mnF: : SR = CE</v>
       </c>
       <c r="B2" t="s">
         <v>4</v>
@@ -670,7 +675,7 @@
       <c r="C2" t="s">
         <v>10</v>
       </c>
-      <c r="D2" t="s">
+      <c r="D2" s="1" t="s">
         <v>7</v>
       </c>
       <c r="E2" t="s">
@@ -707,10 +712,10 @@
         <v>55</v>
       </c>
     </row>
-    <row r="3" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:16" ht="51" x14ac:dyDescent="0.2">
       <c r="A3" t="str">
-        <f t="shared" ref="A3:A13" si="0">L3&amp;": "&amp;M3&amp;": "&amp;N3</f>
-        <v xml:space="preserve">MSM: mnF: </v>
+        <f t="shared" si="0"/>
+        <v>MSM: mnF: : SR = CE</v>
       </c>
       <c r="B3" t="s">
         <v>9</v>
@@ -718,7 +723,7 @@
       <c r="C3" t="s">
         <v>3</v>
       </c>
-      <c r="D3" t="s">
+      <c r="D3" s="1" t="s">
         <v>7</v>
       </c>
       <c r="E3" t="s">
@@ -755,10 +760,10 @@
         <v>56</v>
       </c>
     </row>
-    <row r="4" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:16" ht="51" x14ac:dyDescent="0.2">
       <c r="A4" t="str">
         <f t="shared" si="0"/>
-        <v xml:space="preserve">SSM: mnF: </v>
+        <v>SSM: mnF: : SR = Naïve</v>
       </c>
       <c r="B4" t="s">
         <v>11</v>
@@ -766,7 +771,7 @@
       <c r="C4" t="s">
         <v>13</v>
       </c>
-      <c r="D4" t="s">
+      <c r="D4" s="1" t="s">
         <v>15</v>
       </c>
       <c r="E4" t="s">
@@ -803,10 +808,10 @@
         <v>55</v>
       </c>
     </row>
-    <row r="5" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:16" ht="51" x14ac:dyDescent="0.2">
       <c r="A5" t="str">
         <f t="shared" si="0"/>
-        <v xml:space="preserve">MSM: mnF: </v>
+        <v>MSM: mnF: : SR = Naïve</v>
       </c>
       <c r="B5" t="s">
         <v>12</v>
@@ -814,7 +819,7 @@
       <c r="C5" t="s">
         <v>14</v>
       </c>
-      <c r="D5" t="s">
+      <c r="D5" s="1" t="s">
         <v>16</v>
       </c>
       <c r="E5" t="s">
@@ -851,10 +856,10 @@
         <v>56</v>
       </c>
     </row>
-    <row r="6" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:16" ht="34" x14ac:dyDescent="0.2">
       <c r="A6" t="str">
         <f t="shared" si="0"/>
-        <v>SSM: B0 = CE: B40 = CE</v>
+        <v>SSM: B0 = CE: B40 = CE: SR = CE</v>
       </c>
       <c r="B6" t="s">
         <v>18</v>
@@ -862,7 +867,7 @@
       <c r="C6" t="s">
         <v>38</v>
       </c>
-      <c r="D6" t="s">
+      <c r="D6" s="1" t="s">
         <v>69</v>
       </c>
       <c r="E6" t="s">
@@ -902,10 +907,10 @@
         <v>55</v>
       </c>
     </row>
-    <row r="7" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:16" ht="34" x14ac:dyDescent="0.2">
       <c r="A7" t="str">
         <f t="shared" si="0"/>
-        <v>MSM: B0 = CE: B40 = CE</v>
+        <v>MSM: B0 = CE: B40 = CE: SR = CE</v>
       </c>
       <c r="B7" t="s">
         <v>30</v>
@@ -913,7 +918,7 @@
       <c r="C7" t="s">
         <v>37</v>
       </c>
-      <c r="D7" t="s">
+      <c r="D7" s="1" t="s">
         <v>69</v>
       </c>
       <c r="E7" t="s">
@@ -953,10 +958,10 @@
         <v>56</v>
       </c>
     </row>
-    <row r="8" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:16" ht="51" x14ac:dyDescent="0.2">
       <c r="A8" t="str">
         <f t="shared" si="0"/>
-        <v>SSM: B0 = Naïve: B40 = Naïve</v>
+        <v>SSM: B0 = Naïve: B40 = Naïve: SR = Naïve</v>
       </c>
       <c r="B8" t="s">
         <v>28</v>
@@ -964,7 +969,7 @@
       <c r="C8" t="s">
         <v>40</v>
       </c>
-      <c r="D8" t="s">
+      <c r="D8" s="1" t="s">
         <v>70</v>
       </c>
       <c r="E8" t="s">
@@ -1004,10 +1009,10 @@
         <v>55</v>
       </c>
     </row>
-    <row r="9" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:16" ht="51" x14ac:dyDescent="0.2">
       <c r="A9" t="str">
         <f t="shared" si="0"/>
-        <v>MSM: B0 = Naïve: B40 = Naïve</v>
+        <v>MSM: B0 = Naïve: B40 = Naïve: SR = Naïve</v>
       </c>
       <c r="B9" t="s">
         <v>29</v>
@@ -1015,7 +1020,7 @@
       <c r="C9" t="s">
         <v>39</v>
       </c>
-      <c r="D9" t="s">
+      <c r="D9" s="1" t="s">
         <v>70</v>
       </c>
       <c r="E9" t="s">
@@ -1055,10 +1060,10 @@
         <v>56</v>
       </c>
     </row>
-    <row r="10" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:16" ht="34" x14ac:dyDescent="0.2">
       <c r="A10" t="str">
         <f t="shared" si="0"/>
-        <v>SSM: B0 = Naïve: B40 = CE</v>
+        <v>SSM: B0 = Naïve: B40 = CE: SR = CE</v>
       </c>
       <c r="B10" t="s">
         <v>34</v>
@@ -1066,7 +1071,7 @@
       <c r="C10" t="s">
         <v>43</v>
       </c>
-      <c r="D10" t="s">
+      <c r="D10" s="1" t="s">
         <v>46</v>
       </c>
       <c r="E10" t="s">
@@ -1106,10 +1111,10 @@
         <v>55</v>
       </c>
     </row>
-    <row r="11" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:16" ht="34" x14ac:dyDescent="0.2">
       <c r="A11" t="str">
         <f t="shared" si="0"/>
-        <v>MSM: B0 = Naïve: B40 = CE</v>
+        <v>MSM: B0 = Naïve: B40 = CE: SR = CE</v>
       </c>
       <c r="B11" t="s">
         <v>35</v>
@@ -1117,7 +1122,7 @@
       <c r="C11" t="s">
         <v>36</v>
       </c>
-      <c r="D11" t="s">
+      <c r="D11" s="1" t="s">
         <v>46</v>
       </c>
       <c r="E11" t="s">
@@ -1157,10 +1162,10 @@
         <v>56</v>
       </c>
     </row>
-    <row r="12" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:16" ht="34" x14ac:dyDescent="0.2">
       <c r="A12" t="str">
-        <f t="shared" si="0"/>
-        <v>SSM: B0 = Naïve: B40 = CE</v>
+        <f t="shared" ref="A12:A17" si="1">L12&amp;": "&amp;M12&amp;": "&amp;N12&amp;": "&amp;O12</f>
+        <v>SSM: B0 = Naïve: B40 = CE: SR = Naïve</v>
       </c>
       <c r="B12" t="s">
         <v>41</v>
@@ -1168,7 +1173,7 @@
       <c r="C12" t="s">
         <v>44</v>
       </c>
-      <c r="D12" t="s">
+      <c r="D12" s="1" t="s">
         <v>46</v>
       </c>
       <c r="E12" t="s">
@@ -1208,10 +1213,10 @@
         <v>55</v>
       </c>
     </row>
-    <row r="13" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:16" ht="34" x14ac:dyDescent="0.2">
       <c r="A13" t="str">
-        <f t="shared" si="0"/>
-        <v>MSM: B0 = Naïve: B40 = CE</v>
+        <f t="shared" si="1"/>
+        <v>MSM: B0 = Naïve: B40 = CE: SR = Naïve</v>
       </c>
       <c r="B13" t="s">
         <v>42</v>
@@ -1219,7 +1224,7 @@
       <c r="C13" t="s">
         <v>45</v>
       </c>
-      <c r="D13" t="s">
+      <c r="D13" s="1" t="s">
         <v>46</v>
       </c>
       <c r="E13" t="s">
@@ -1259,10 +1264,10 @@
         <v>56</v>
       </c>
     </row>
-    <row r="14" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:16" ht="34" x14ac:dyDescent="0.2">
       <c r="A14" t="str">
-        <f t="shared" ref="A14:A17" si="1">L14&amp;": "&amp;M14&amp;": "&amp;N14</f>
-        <v>SSM: B0 = CE: B40 = CE</v>
+        <f t="shared" si="1"/>
+        <v>SSM: B0 = CE: B40 = CE: SR = CE</v>
       </c>
       <c r="B14" t="s">
         <v>65</v>
@@ -1270,7 +1275,7 @@
       <c r="C14" t="s">
         <v>38</v>
       </c>
-      <c r="D14" t="s">
+      <c r="D14" s="1" t="s">
         <v>71</v>
       </c>
       <c r="E14" t="s">
@@ -1310,10 +1315,10 @@
         <v>55</v>
       </c>
     </row>
-    <row r="15" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:16" ht="34" x14ac:dyDescent="0.2">
       <c r="A15" t="str">
         <f t="shared" si="1"/>
-        <v>MSM: B0 = CE: B40 = CE</v>
+        <v>MSM: B0 = CE: B40 = CE: SR = CE</v>
       </c>
       <c r="B15" t="s">
         <v>66</v>
@@ -1321,7 +1326,7 @@
       <c r="C15" t="s">
         <v>37</v>
       </c>
-      <c r="D15" t="s">
+      <c r="D15" s="1" t="s">
         <v>71</v>
       </c>
       <c r="E15" t="s">
@@ -1361,10 +1366,10 @@
         <v>56</v>
       </c>
     </row>
-    <row r="16" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:16" ht="51" x14ac:dyDescent="0.2">
       <c r="A16" t="str">
         <f t="shared" si="1"/>
-        <v>SSM: B0 = Naïve: B40 = Naïve</v>
+        <v>SSM: B0 = Naïve: B40 = Naïve: SR = Naïve</v>
       </c>
       <c r="B16" t="s">
         <v>67</v>
@@ -1372,7 +1377,7 @@
       <c r="C16" t="s">
         <v>40</v>
       </c>
-      <c r="D16" t="s">
+      <c r="D16" s="1" t="s">
         <v>72</v>
       </c>
       <c r="E16" t="s">
@@ -1412,10 +1417,10 @@
         <v>55</v>
       </c>
     </row>
-    <row r="17" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:16" ht="51" x14ac:dyDescent="0.2">
       <c r="A17" t="str">
         <f t="shared" si="1"/>
-        <v>MSM: B0 = Naïve: B40 = Naïve</v>
+        <v>MSM: B0 = Naïve: B40 = Naïve: SR = Naïve</v>
       </c>
       <c r="B17" t="s">
         <v>68</v>
@@ -1423,7 +1428,7 @@
       <c r="C17" t="s">
         <v>39</v>
       </c>
-      <c r="D17" t="s">
+      <c r="D17" s="1" t="s">
         <v>72</v>
       </c>
       <c r="E17" t="s">
